--- a/Data/End of Day/End of Day_23_Graph.xlsx
+++ b/Data/End of Day/End of Day_23_Graph.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/End of Day/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A013E49C-D2C5-9040-AF1C-B0B3237B24E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95065D66-E7AF-3F42-8672-FEB5E5BD71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="15500" windowHeight="15940" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeling" sheetId="1" r:id="rId1"/>
     <sheet name="Identity" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -64,13 +64,34 @@
   </si>
   <si>
     <t>Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I find today's camp activities difficult.</t>
+  </si>
+  <si>
+    <t>Today's camp activities made me feel like I was a computer scientist.</t>
+  </si>
+  <si>
+    <t>Today's camp activities are useful for what I will be doing in school.</t>
+  </si>
+  <si>
+    <t>Today's camp activities are useful for my future career goals.</t>
+  </si>
+  <si>
+    <t>I want to do more activities similar to today's camp activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I find today's camp activities interesting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I felt successful after completing today's camp activitie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,8 +99,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,12 +117,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -110,13 +132,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66F8852-382D-474B-9626-EE80E3B090BF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,10 +521,10 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>4.492</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.8225828652975492</v>
       </c>
     </row>
@@ -513,10 +536,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>4.4027777777777777</v>
       </c>
       <c r="D4" s="3">
-        <v>0.5</v>
+        <v>0.90894230095676964</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -526,10 +549,10 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>4.4909090909090912</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.87697071655259806</v>
       </c>
     </row>
@@ -540,10 +563,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>4.4160000000000004</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.91558570803339845</v>
       </c>
     </row>
@@ -555,10 +578,136 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
+        <v>4.3305555555555557</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.99534276075614447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
+      <c r="C8" s="2">
+        <v>4.3818181818181818</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.98697556694236765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.083636363636364</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.8225828652975492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.044417445010805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.730909090909091</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.2930009127291879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.0145454545454546</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.91558570803339845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.0277777777777777</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.4080174550843985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.3127272727272725</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.99102810021783272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.9490909090909092</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.89715301601039432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.3111111111111109</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.0303953801480845</v>
       </c>
     </row>
   </sheetData>
@@ -568,15 +717,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4456707-D84C-8B4D-935B-2778A95179EA}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -597,86 +746,170 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>4.3854545454545457</v>
+        <v>3.5854545454545454</v>
       </c>
       <c r="D2" s="2">
-        <v>0.83084210684280169</v>
+        <v>1.2153846799970776</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>4.492</v>
-      </c>
-      <c r="D3">
-        <v>0.8225828652975492</v>
+      <c r="C3" s="2">
+        <v>3.3927272727272726</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2722620022659004</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>3.7583333333333333</v>
       </c>
       <c r="D4" s="3">
-        <v>0.5</v>
+        <v>1.3538092343077501</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>4.4909090909090912</v>
-      </c>
-      <c r="D5">
-        <v>0.87697071655259806</v>
+      <c r="C5" s="2">
+        <v>3.6981818181818182</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.130126746507605</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>4.4160000000000004</v>
-      </c>
-      <c r="D6">
-        <v>0.91558570803339845</v>
+      <c r="C6" s="2">
+        <v>3.4763636359999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0796697399999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
+        <v>3.85555556</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.2040887733318328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
+      <c r="C8" s="2">
+        <v>3.8509090909090911</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.1790248239545238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.5018181820000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.12924611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.8305555555555557</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.2226550962434848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.2254545454545456</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.0840950650900598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.829090909</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.100864939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.1111111111111107</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.1796269127813648</v>
       </c>
     </row>
   </sheetData>

--- a/Data/End of Day/End of Day_23_Graph.xlsx
+++ b/Data/End of Day/End of Day_23_Graph.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/End of Day/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95065D66-E7AF-3F42-8672-FEB5E5BD71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE292EF6-4860-B54C-B6E0-8537E1987872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="15500" windowHeight="15940" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="24240" windowHeight="15580" activeTab="5" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeling" sheetId="1" r:id="rId1"/>
     <sheet name="Identity" sheetId="2" r:id="rId2"/>
+    <sheet name="Feeling (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="Identity (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="Find" sheetId="3" r:id="rId5"/>
+    <sheet name="enjoy_do" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -132,14 +136,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66F8852-382D-474B-9626-EE80E3B090BF}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,10 +543,10 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>4.4027777777777777</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.90894230095676964</v>
       </c>
     </row>
@@ -577,10 +585,10 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>4.3305555555555557</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.99534276075614447</v>
       </c>
     </row>
@@ -720,7 +728,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D13"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,10 +787,10 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3.7583333333333333</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1.3538092343077501</v>
       </c>
     </row>
@@ -821,10 +829,10 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3.85555556</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1.2040887733318328</v>
       </c>
     </row>
@@ -852,7 +860,7 @@
       <c r="C9" s="2">
         <v>3.5018181820000001</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1.12924611</v>
       </c>
     </row>
@@ -910,6 +918,567 @@
       </c>
       <c r="D13" s="2">
         <v>1.1796269127813648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3159F03C-9B0E-B841-862A-B1636CFC7C86}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.3854545454545457</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.83084210684280169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.492</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.8225828652975492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.4027777777777777</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.90894230095676964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.3127272727272725</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.99102810021783272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.9490909090909092</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.89715301601039432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.3111111111111109</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0303953801480845</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D34C2A4-F9A2-8F41-8C49-0841921B9A04}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.5854545454545454</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.2153846799970776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.3927272727272726</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2722620022659004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.7583333333333333</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.3538092343077501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.6981818181818182</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.130126746507605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.4763636359999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0796697399999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.85555556</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.2040887733318328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.8509090909090911</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.1790248239545238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.5018181820000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.12924611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.8305555555555557</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.2226550962434848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E904E6-EDBF-A145-A350-BAD50FD7D7DA}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.3818181818181818</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.98697556694236765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.083636363636364</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.8225828652975492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.044417445010805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.730909090909091</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.2930009127291879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.0145454545454546</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.91558570803339845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.0277777777777777</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.4080174550843985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3681E5B-6CDD-5E45-BF7D-A6844F377019}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.2254545454545456</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.0840950650900598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.829090909</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.100864939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.1111111111111107</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1796269127813648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.4909090909090912</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.87697071655259806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.4160000000000004</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.91558570803339845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.3305555555555557</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.99534276075614447</v>
       </c>
     </row>
   </sheetData>

--- a/Data/End of Day/End of Day_23_Graph.xlsx
+++ b/Data/End of Day/End of Day_23_Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/End of Day/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/End of Day/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE292EF6-4860-B54C-B6E0-8537E1987872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865A1F0E-895E-414F-884D-375599E92E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="24240" windowHeight="15580" activeTab="5" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
+    <workbookView xWindow="1080" yWindow="740" windowWidth="25220" windowHeight="18980" activeTab="6" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeling" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Identity (2)" sheetId="5" r:id="rId4"/>
     <sheet name="Find" sheetId="3" r:id="rId5"/>
     <sheet name="enjoy_do" sheetId="4" r:id="rId6"/>
+    <sheet name="TEST" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -89,13 +90,40 @@
   </si>
   <si>
     <t xml:space="preserve"> I felt successful after completing today's camp activitie</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much did you enjoy coding? </t>
+  </si>
+  <si>
+    <t>1 - No experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - I disliked it a great deal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - I disliked it a little </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - I liked it a little </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - I liked it a great deal </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,8 +138,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,11 +164,37 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -136,18 +203,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +559,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E904E6-EDBF-A145-A350-BAD50FD7D7DA}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -1330,40 +1404,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1374,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3681E5B-6CDD-5E45-BF7D-A6844F377019}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1484,4 +1537,211 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45124D-FBF8-C048-8F18-020CDFF1BF92}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7">
+        <v>44</v>
+      </c>
+      <c r="E2" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7">
+        <v>67</v>
+      </c>
+      <c r="E5" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>67</v>
+      </c>
+      <c r="E10" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7">
+        <v>83</v>
+      </c>
+      <c r="E11" s="9">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/End of Day/End of Day_23_Graph.xlsx
+++ b/Data/End of Day/End of Day_23_Graph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/End of Day/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Documents/GitHub/GGEESummer23/Data/End of Day/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865A1F0E-895E-414F-884D-375599E92E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004DB8E7-7A6F-B645-BF82-91F7C7F85887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="740" windowWidth="25220" windowHeight="18980" activeTab="6" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
+    <workbookView xWindow="12260" yWindow="500" windowWidth="15360" windowHeight="15940" firstSheet="4" activeTab="7" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeling" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Find" sheetId="3" r:id="rId5"/>
     <sheet name="enjoy_do" sheetId="4" r:id="rId6"/>
     <sheet name="TEST" sheetId="7" r:id="rId7"/>
+    <sheet name="Feeling Stacked" sheetId="8" r:id="rId8"/>
+    <sheet name="Identity Stacked" sheetId="9" r:id="rId9"/>
+    <sheet name="Find Stacked " sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="37">
   <si>
     <t>Question</t>
   </si>
@@ -117,6 +120,42 @@
   </si>
   <si>
     <t xml:space="preserve">5 - I liked it a great deal </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>I felt confident when completing today's camp activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro:bit Pet </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I felt successful after completing today's camp activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Today's camp activities made me feel like I was a computer scientist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Today's camp activities are useful for what I will be doing in school.</t>
+  </si>
+  <si>
+    <t>5-Strongly agree</t>
+  </si>
+  <si>
+    <t>4-Somewhat agree</t>
+  </si>
+  <si>
+    <t>3-Neither agree nor disagree</t>
+  </si>
+  <si>
+    <t>2-Somewhat disagree</t>
+  </si>
+  <si>
+    <t>1-Strongly disagree</t>
   </si>
 </sst>
 </file>
@@ -203,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +261,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,6 +840,162 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C18683B-ECE9-E342-B333-4B4395343288}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4456707-D84C-8B4D-935B-2778A95179EA}">
   <dimension ref="A1:D13"/>
@@ -1121,7 +1320,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD13"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45124D-FBF8-C048-8F18-020CDFF1BF92}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1744,4 +1943,1353 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE14A6B8-8635-FA4B-AD2A-DEC86D61E5E2}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2">
+        <v>54.54545454545454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2">
+        <v>34.909090909090914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.1818181818181817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.2727272727272729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0909090909090911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>160</v>
+      </c>
+      <c r="E7" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>220</v>
+      </c>
+      <c r="E12" s="2">
+        <v>61.111111111111114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>88</v>
+      </c>
+      <c r="E13" s="2">
+        <v>24.444444444444443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.9444444444444444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>164</v>
+      </c>
+      <c r="E17" s="3">
+        <v>59.636363600000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3">
+        <v>19.636363599999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3">
+        <v>15.2727273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3.2727272699999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.1818181800000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>141</v>
+      </c>
+      <c r="E22" s="2">
+        <v>56.399999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2">
+        <v>67</v>
+      </c>
+      <c r="E23" s="2">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2">
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2">
+        <v>216</v>
+      </c>
+      <c r="E27" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2">
+        <v>77</v>
+      </c>
+      <c r="E28" s="2">
+        <v>21.388888888888889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2">
+        <v>11.388888888888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4.1666666666666661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ABF019-0EA5-9346-A662-004F30A49F1A}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2">
+        <v>26.90909090909091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30.545454545454547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2">
+        <v>25.454545454545453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.3636363636363633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.7272727272727284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>94</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2">
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.7999999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>154</v>
+      </c>
+      <c r="E12" s="2">
+        <v>42.777777777777779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2">
+        <v>18.611111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2">
+        <v>21.388888888888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.1111111111111107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2">
+        <v>27.636363636363637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2">
+        <v>34.545454545454547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>23.272727272727273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2">
+        <v>66</v>
+      </c>
+      <c r="E24" s="2">
+        <v>26.400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2">
+        <v>146</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40.555555555555557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2">
+        <v>85</v>
+      </c>
+      <c r="E28" s="2">
+        <v>23.611111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2">
+        <v>83</v>
+      </c>
+      <c r="E29" s="2">
+        <v>23.055555555555557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2">
+        <v>23</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6.3888888888888884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6.3888888888888884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2">
+        <v>104</v>
+      </c>
+      <c r="E32" s="2">
+        <v>37.81818181818182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2">
+        <v>29.09090909090909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="2">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2">
+        <v>18.90909090909091</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8.7272727272727284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2">
+        <v>89</v>
+      </c>
+      <c r="E37" s="2">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2">
+        <v>77</v>
+      </c>
+      <c r="E38" s="2">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2">
+        <v>54</v>
+      </c>
+      <c r="E39" s="2">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="2">
+        <v>143</v>
+      </c>
+      <c r="E42" s="2">
+        <v>39.722222222222221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="2">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2">
+        <v>23.888888888888889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2">
+        <v>23.611111111111111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2">
+        <v>19</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5.2777777777777777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2">
+        <v>27</v>
+      </c>
+      <c r="E46" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/End of Day/End of Day_23_Graph.xlsx
+++ b/Data/End of Day/End of Day_23_Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Documents/GitHub/GGEESummer23/Data/End of Day/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004DB8E7-7A6F-B645-BF82-91F7C7F85887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D18986E-05AB-FE4A-A3E6-5C70D653B901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12260" yWindow="500" windowWidth="15360" windowHeight="15940" firstSheet="4" activeTab="7" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
+    <workbookView xWindow="12260" yWindow="500" windowWidth="15360" windowHeight="15940" firstSheet="4" activeTab="8" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeling" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="enjoy_do" sheetId="4" r:id="rId6"/>
     <sheet name="TEST" sheetId="7" r:id="rId7"/>
     <sheet name="Feeling Stacked" sheetId="8" r:id="rId8"/>
-    <sheet name="Identity Stacked" sheetId="9" r:id="rId9"/>
-    <sheet name="Find Stacked " sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId9"/>
+    <sheet name="Identity Stacked" sheetId="9" r:id="rId10"/>
+    <sheet name="Find Stacked " sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -841,6 +842,808 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ABF019-0EA5-9346-A662-004F30A49F1A}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2">
+        <v>26.90909090909091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30.545454545454547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2">
+        <v>25.454545454545453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.3636363636363633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.7272727272727284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>94</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2">
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.7999999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>154</v>
+      </c>
+      <c r="E12" s="2">
+        <v>42.777777777777779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2">
+        <v>18.611111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2">
+        <v>21.388888888888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.1111111111111107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2">
+        <v>27.636363636363637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2">
+        <v>34.545454545454547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>23.272727272727273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2">
+        <v>66</v>
+      </c>
+      <c r="E24" s="2">
+        <v>26.400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2">
+        <v>146</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40.555555555555557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2">
+        <v>85</v>
+      </c>
+      <c r="E28" s="2">
+        <v>23.611111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2">
+        <v>83</v>
+      </c>
+      <c r="E29" s="2">
+        <v>23.055555555555557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2">
+        <v>23</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6.3888888888888884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6.3888888888888884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2">
+        <v>104</v>
+      </c>
+      <c r="E32" s="2">
+        <v>37.81818181818182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2">
+        <v>29.09090909090909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="2">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2">
+        <v>18.90909090909091</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8.7272727272727284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2">
+        <v>89</v>
+      </c>
+      <c r="E37" s="2">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2">
+        <v>77</v>
+      </c>
+      <c r="E38" s="2">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2">
+        <v>54</v>
+      </c>
+      <c r="E39" s="2">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="2">
+        <v>143</v>
+      </c>
+      <c r="E42" s="2">
+        <v>39.722222222222221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="2">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2">
+        <v>23.888888888888889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2">
+        <v>23.611111111111111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2">
+        <v>19</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5.2777777777777777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2">
+        <v>27</v>
+      </c>
+      <c r="E46" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C18683B-ECE9-E342-B333-4B4395343288}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -1949,7 +2752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE14A6B8-8635-FA4B-AD2A-DEC86D61E5E2}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2493,803 +3296,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ABF019-0EA5-9346-A662-004F30A49F1A}">
-  <dimension ref="A1:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B1A2CD-7257-4546-905E-E1227DE5994D}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C46"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="57.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2">
-        <v>26.90909090909091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2">
-        <v>30.545454545454547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2">
-        <v>25.454545454545453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8.3636363636363633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8.7272727272727284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
-        <v>94</v>
-      </c>
-      <c r="E7" s="2">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2">
-        <v>22.400000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6.8000000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8.7999999999999989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2">
-        <v>154</v>
-      </c>
-      <c r="E12" s="2">
-        <v>42.777777777777779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2">
-        <v>18.611111111111111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2">
-        <v>21.388888888888889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6.1111111111111107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2">
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2">
-        <v>76</v>
-      </c>
-      <c r="E17" s="2">
-        <v>27.636363636363637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2">
-        <v>95</v>
-      </c>
-      <c r="E18" s="2">
-        <v>34.545454545454547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2">
-        <v>64</v>
-      </c>
-      <c r="E19" s="2">
-        <v>23.272727272727273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2">
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5.4545454545454541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2">
-        <v>81</v>
-      </c>
-      <c r="E22" s="2">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="2">
-        <v>79</v>
-      </c>
-      <c r="E23" s="2">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="2">
-        <v>66</v>
-      </c>
-      <c r="E24" s="2">
-        <v>26.400000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="2">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2">
-        <v>4.3999999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="2">
-        <v>146</v>
-      </c>
-      <c r="E27" s="2">
-        <v>40.555555555555557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="2">
-        <v>85</v>
-      </c>
-      <c r="E28" s="2">
-        <v>23.611111111111111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="2">
-        <v>83</v>
-      </c>
-      <c r="E29" s="2">
-        <v>23.055555555555557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2">
-        <v>23</v>
-      </c>
-      <c r="E30" s="2">
-        <v>6.3888888888888884</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2">
-        <v>23</v>
-      </c>
-      <c r="E31" s="2">
-        <v>6.3888888888888884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="2">
-        <v>104</v>
-      </c>
-      <c r="E32" s="2">
-        <v>37.81818181818182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="2">
-        <v>80</v>
-      </c>
-      <c r="E33" s="2">
-        <v>29.09090909090909</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="2">
-        <v>52</v>
-      </c>
-      <c r="E34" s="2">
-        <v>18.90909090909091</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="2">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2">
-        <v>8.7272727272727284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="2">
-        <v>15</v>
-      </c>
-      <c r="E36" s="2">
-        <v>5.4545454545454541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="2">
-        <v>89</v>
-      </c>
-      <c r="E37" s="2">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="2">
-        <v>77</v>
-      </c>
-      <c r="E38" s="2">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="2">
-        <v>54</v>
-      </c>
-      <c r="E39" s="2">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="2">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2">
-        <v>7.1999999999999993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="2">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="2">
-        <v>143</v>
-      </c>
-      <c r="E42" s="2">
-        <v>39.722222222222221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="2">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2">
-        <v>23.888888888888889</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="2">
-        <v>85</v>
-      </c>
-      <c r="E44" s="2">
-        <v>23.611111111111111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="2">
-        <v>19</v>
-      </c>
-      <c r="E45" s="2">
-        <v>5.2777777777777777</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="2">
-        <v>27</v>
-      </c>
-      <c r="E46" s="2">
-        <v>7.5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/End of Day/End of Day_23_Graph.xlsx
+++ b/Data/End of Day/End of Day_23_Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Documents/GitHub/GGEESummer23/Data/End of Day/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D18986E-05AB-FE4A-A3E6-5C70D653B901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC12E29-3B5F-8541-B02C-C4D7C371FA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12260" yWindow="500" windowWidth="15360" windowHeight="15940" firstSheet="4" activeTab="8" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
+    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="15940" firstSheet="6" activeTab="10" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeling" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="enjoy_do" sheetId="4" r:id="rId6"/>
     <sheet name="TEST" sheetId="7" r:id="rId7"/>
     <sheet name="Feeling Stacked" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="11" r:id="rId9"/>
-    <sheet name="Identity Stacked" sheetId="9" r:id="rId10"/>
-    <sheet name="Find Stacked " sheetId="10" r:id="rId11"/>
+    <sheet name="Identity Stacked" sheetId="9" r:id="rId9"/>
+    <sheet name="Find Stacked " sheetId="10" r:id="rId10"/>
+    <sheet name="Enjoy Stacked" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="37">
   <si>
     <t>Question</t>
   </si>
@@ -262,10 +262,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,18 +840,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ABF019-0EA5-9346-A662-004F30A49F1A}">
-  <dimension ref="A1:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C18683B-ECE9-E342-B333-4B4395343288}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -875,767 +873,512 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2">
-        <v>26.90909090909091</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2.9090909090909092</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2">
-        <v>30.545454545454547</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2.9090909090909092</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2">
-        <v>25.454545454545453</v>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>10.545454545454545</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8.3636363636363633</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>20.363636363636363</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8.7272727272727284</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>63.272727272727266</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
-        <v>94</v>
-      </c>
-      <c r="E7" s="2">
-        <v>37.6</v>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2">
-        <v>22.400000000000002</v>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2">
-        <v>24.4</v>
+      <c r="D9" s="11">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11">
+        <v>7.0833333300000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6.8000000000000007</v>
+      <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>27.083333333333332</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8.7999999999999989</v>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <v>62.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2">
-        <v>154</v>
-      </c>
-      <c r="E12" s="2">
-        <v>42.777777777777779</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2">
-        <v>18.611111111111111</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2">
-        <v>21.388888888888889</v>
+      <c r="D14">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>12.222222222222221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6.1111111111111107</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>68</v>
+      </c>
+      <c r="E15">
+        <v>18.888888888888889</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2">
-        <v>11.111111111111111</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>219</v>
+      </c>
+      <c r="E16">
+        <v>60.833333333333329</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2">
-        <v>76</v>
-      </c>
-      <c r="E17" s="2">
-        <v>27.636363636363637</v>
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>22.90909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2">
-        <v>95</v>
-      </c>
-      <c r="E18" s="2">
-        <v>34.545454545454547</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>21.818181818181817</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="2">
-        <v>64</v>
-      </c>
-      <c r="E19" s="2">
-        <v>23.272727272727273</v>
+      <c r="D19">
+        <v>67</v>
+      </c>
+      <c r="E19">
+        <v>24.363636363636363</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2">
-        <v>9.0909090909090917</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>21.09090909090909</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5.4545454545454541</v>
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>9.8181818181818183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2">
-        <v>81</v>
-      </c>
-      <c r="E22" s="2">
-        <v>32.4</v>
+      <c r="C22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="2">
-        <v>79</v>
-      </c>
-      <c r="E23" s="2">
-        <v>31.6</v>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="2">
-        <v>66</v>
-      </c>
-      <c r="E24" s="2">
-        <v>26.400000000000002</v>
+      <c r="D24">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>24.8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="2">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5.2</v>
+      <c r="C25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>22.8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
         <v>36</v>
       </c>
-      <c r="D26" s="2">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2">
-        <v>4.3999999999999995</v>
+      <c r="E26">
+        <v>14.399999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="2">
-        <v>146</v>
-      </c>
-      <c r="E27" s="2">
-        <v>40.555555555555557</v>
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <v>21.388888888888889</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="2">
-        <v>85</v>
-      </c>
-      <c r="E28" s="2">
-        <v>23.611111111111111</v>
+        <v>9</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="2">
-        <v>83</v>
-      </c>
-      <c r="E29" s="2">
-        <v>23.055555555555557</v>
+      <c r="D29">
+        <v>77</v>
+      </c>
+      <c r="E29">
+        <v>21.388888888888889</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2">
-        <v>23</v>
-      </c>
-      <c r="E30" s="2">
-        <v>6.3888888888888884</v>
+        <v>9</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>86</v>
+      </c>
+      <c r="E30">
+        <v>23.888888888888889</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2">
-        <v>23</v>
-      </c>
-      <c r="E31" s="2">
-        <v>6.3888888888888884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="2">
-        <v>104</v>
-      </c>
-      <c r="E32" s="2">
-        <v>37.81818181818182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="2">
-        <v>80</v>
-      </c>
-      <c r="E33" s="2">
-        <v>29.09090909090909</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="2">
-        <v>52</v>
-      </c>
-      <c r="E34" s="2">
-        <v>18.90909090909091</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="2">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2">
-        <v>8.7272727272727284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="2">
-        <v>15</v>
-      </c>
-      <c r="E36" s="2">
-        <v>5.4545454545454541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="2">
-        <v>89</v>
-      </c>
-      <c r="E37" s="2">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="2">
-        <v>77</v>
-      </c>
-      <c r="E38" s="2">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="2">
-        <v>54</v>
-      </c>
-      <c r="E39" s="2">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="2">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2">
-        <v>7.1999999999999993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="2">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="2">
-        <v>143</v>
-      </c>
-      <c r="E42" s="2">
-        <v>39.722222222222221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="2">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2">
-        <v>23.888888888888889</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="2">
-        <v>85</v>
-      </c>
-      <c r="E44" s="2">
-        <v>23.611111111111111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="2">
-        <v>19</v>
-      </c>
-      <c r="E45" s="2">
-        <v>5.2777777777777777</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="2">
-        <v>27</v>
-      </c>
-      <c r="E46" s="2">
-        <v>7.5</v>
+      <c r="D31">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>18.333333333333332</v>
       </c>
     </row>
   </sheetData>
@@ -1644,17 +1387,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C18683B-ECE9-E342-B333-4B4395343288}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B1A2CD-7257-4546-905E-E1227DE5994D}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="50.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1675,123 +1419,513 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>4.7272727272727275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="E4">
+        <v>11.636363636363637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="D5">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>153</v>
+      </c>
+      <c r="E6">
+        <v>55.63636363636364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>137</v>
+      </c>
+      <c r="E11">
+        <v>54.800000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>14.444444444444443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>76</v>
+      </c>
+      <c r="E15">
+        <v>21.111111111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>192</v>
+      </c>
+      <c r="E16">
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1.0909090909090911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>7.2727272727272725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>186</v>
+      </c>
+      <c r="E21">
+        <v>67.63636363636364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>23.599999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="D26">
+        <v>156</v>
+      </c>
+      <c r="E26">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1.9444444444444444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>5.2777777777777777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>10.833333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="D30">
+        <v>78</v>
+      </c>
+      <c r="E30">
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>36</v>
+      <c r="D31">
+        <v>217</v>
+      </c>
+      <c r="E31">
+        <v>60.277777777777771</v>
       </c>
     </row>
   </sheetData>
@@ -2298,7 +2432,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2564,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2750,20 +2884,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE14A6B8-8635-FA4B-AD2A-DEC86D61E5E2}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2780,48 +2915,54 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="2">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>54.54545454545454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.0909090909090911</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>33</v>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="2">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>34.909090909090914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.2727272727272729</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2">
@@ -2830,83 +2971,98 @@
       <c r="E4" s="2">
         <v>6.1818181818181817</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="10"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2">
-        <v>3.2727272727272729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34.909090909090914</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>36</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2">
-        <v>1.0909090909090911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>32</v>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D7" s="2">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>33</v>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="2">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="2">
@@ -2915,83 +3071,98 @@
       <c r="E9" s="2">
         <v>6.8000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="10"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>35</v>
+      <c r="C10" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="E11" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>32</v>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="2">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
-        <v>61.111111111111114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>33</v>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="2">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
-        <v>24.444444444444443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="2">
@@ -3000,83 +3171,98 @@
       <c r="E14" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="10"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D15" s="2">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24.444444444444443</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>36</v>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="2">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E16" s="2">
-        <v>1.9444444444444444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61.111111111111114</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>32</v>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="2">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>59.636363600000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.1818181800000001</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>33</v>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="2">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3">
-        <v>19.636363599999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.2727272699999999</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="2">
@@ -3085,83 +3271,98 @@
       <c r="E19" s="3">
         <v>15.2727273</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="10"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>35</v>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D20" s="2">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E20" s="3">
-        <v>3.2727272699999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.636363599999999</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>36</v>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="2">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="E21" s="3">
-        <v>2.1818181800000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59.636363600000003</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>32</v>
+      <c r="C22" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="2">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2">
-        <v>56.399999999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>33</v>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D23" s="2">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="2">
@@ -3170,83 +3371,98 @@
       <c r="E24" s="2">
         <v>13.200000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="10"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>35</v>
+      <c r="C25" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D25" s="2">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26.8</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>36</v>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D26" s="2">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56.399999999999991</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>32</v>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D27" s="2">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="E27" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>33</v>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D28" s="2">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2">
-        <v>21.388888888888889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="2">
@@ -3255,40 +3471,49 @@
       <c r="E29" s="2">
         <v>11.388888888888889</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="10"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>35</v>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D30" s="2">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2">
-        <v>4.1666666666666661</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21.388888888888889</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>36</v>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D31" s="2">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="E31" s="2">
-        <v>3.0555555555555554</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3296,13 +3521,939 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B1A2CD-7257-4546-905E-E1227DE5994D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ABF019-0EA5-9346-A662-004F30A49F1A}">
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.7272727272727284</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.3636363636363633</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2">
+        <v>25.454545454545453</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30.545454545454547</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26.90909090909091</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>94</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2">
+        <v>21.388888888888889</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2">
+        <v>18.611111111111111</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>154</v>
+      </c>
+      <c r="E16" s="2">
+        <v>42.777777777777779</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>23.272727272727273</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2">
+        <v>95</v>
+      </c>
+      <c r="E20" s="2">
+        <v>34.545454545454547</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2">
+        <v>27.636363636363637</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2">
+        <v>66</v>
+      </c>
+      <c r="E24" s="2">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>81</v>
+      </c>
+      <c r="E26" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6.3888888888888884</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6.3888888888888884</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2">
+        <v>83</v>
+      </c>
+      <c r="E29" s="2">
+        <v>23.055555555555557</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2">
+        <v>85</v>
+      </c>
+      <c r="E30" s="2">
+        <v>23.611111111111111</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2">
+        <v>146</v>
+      </c>
+      <c r="E31" s="2">
+        <v>40.555555555555557</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2">
+        <v>24</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8.7272727272727284</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="2">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2">
+        <v>18.90909090909091</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2">
+        <v>29.09090909090909</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2">
+        <v>104</v>
+      </c>
+      <c r="E36" s="2">
+        <v>37.81818181818182</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="2">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2">
+        <v>54</v>
+      </c>
+      <c r="E39" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="2">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="2">
+        <v>89</v>
+      </c>
+      <c r="E41" s="2">
+        <v>35.6</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2">
+        <v>27</v>
+      </c>
+      <c r="E42" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="2">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5.2777777777777777</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2">
+        <v>23.611111111111111</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2">
+        <v>86</v>
+      </c>
+      <c r="E45" s="2">
+        <v>23.888888888888889</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="2">
+        <v>143</v>
+      </c>
+      <c r="E46" s="2">
+        <v>39.722222222222221</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/End of Day/End of Day_23_Graph.xlsx
+++ b/Data/End of Day/End of Day_23_Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Documents/GitHub/GGEESummer23/Data/End of Day/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC12E29-3B5F-8541-B02C-C4D7C371FA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8F0C4C-97B4-F44A-B7EF-7D5CF31A4D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="15940" firstSheet="6" activeTab="10" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>I felt confident when completing today's camp activities</t>
   </si>
   <si>
     <t xml:space="preserve">Micro:bit Pet </t>
@@ -879,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -896,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -913,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>29</v>
@@ -930,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>56</v>
@@ -947,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>174</v>
@@ -961,10 +958,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -978,10 +975,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -995,10 +992,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="11">
         <v>17</v>
@@ -1012,10 +1009,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>65</v>
@@ -1029,10 +1026,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -1049,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1066,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -1083,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>44</v>
@@ -1100,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>68</v>
@@ -1117,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>219</v>
@@ -1134,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>63</v>
@@ -1151,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -1168,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>67</v>
@@ -1185,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>58</v>
@@ -1202,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>27</v>
@@ -1216,10 +1213,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>55</v>
@@ -1233,10 +1230,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>40</v>
@@ -1250,10 +1247,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>62</v>
@@ -1267,10 +1264,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>57</v>
@@ -1284,10 +1281,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>36</v>
@@ -1304,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>77</v>
@@ -1321,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>54</v>
@@ -1338,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>77</v>
@@ -1355,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>86</v>
@@ -1372,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>66</v>
@@ -1426,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1443,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -1460,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1477,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>66</v>
@@ -1494,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>153</v>
@@ -1508,10 +1505,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -1525,10 +1522,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -1542,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>25</v>
@@ -1559,10 +1556,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>64</v>
@@ -1576,10 +1573,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>137</v>
@@ -1596,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -1613,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -1630,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>52</v>
@@ -1647,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>76</v>
@@ -1664,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>192</v>
@@ -1681,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1698,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>11</v>
@@ -1715,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -1732,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>55</v>
@@ -1749,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>186</v>
@@ -1763,10 +1760,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -1780,10 +1777,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -1797,10 +1794,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1814,10 +1811,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>59</v>
@@ -1831,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>156</v>
@@ -1851,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -1868,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>19</v>
@@ -1885,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>39</v>
@@ -1902,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>78</v>
@@ -1919,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>217</v>
@@ -2886,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE14A6B8-8635-FA4B-AD2A-DEC86D61E5E2}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2917,13 +2914,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -2937,13 +2934,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>9</v>
@@ -2957,13 +2954,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>17</v>
@@ -2977,13 +2974,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>96</v>
@@ -2997,13 +2994,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>150</v>
@@ -3017,13 +3014,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -3037,13 +3034,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -3057,13 +3054,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>17</v>
@@ -3077,13 +3074,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>65</v>
@@ -3097,13 +3094,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>160</v>
@@ -3117,13 +3114,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>7</v>
@@ -3137,13 +3134,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>9</v>
@@ -3157,13 +3154,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>36</v>
@@ -3177,13 +3174,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>88</v>
@@ -3197,13 +3194,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>220</v>
@@ -3217,13 +3214,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
@@ -3237,13 +3234,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>9</v>
@@ -3257,13 +3254,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>42</v>
@@ -3277,13 +3274,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>54</v>
@@ -3297,13 +3294,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>164</v>
@@ -3317,13 +3314,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -3337,13 +3334,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -3357,13 +3354,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>33</v>
@@ -3377,13 +3374,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>67</v>
@@ -3397,13 +3394,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>141</v>
@@ -3417,13 +3414,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>11</v>
@@ -3437,13 +3434,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>15</v>
@@ -3457,13 +3454,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>41</v>
@@ -3477,13 +3474,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>77</v>
@@ -3497,13 +3494,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>216</v>
@@ -3524,7 +3521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ABF019-0EA5-9346-A662-004F30A49F1A}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="107" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
@@ -3555,13 +3552,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>24</v>
@@ -3575,13 +3572,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>23</v>
@@ -3595,13 +3592,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>70</v>
@@ -3615,13 +3612,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>84</v>
@@ -3635,13 +3632,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>74</v>
@@ -3655,13 +3652,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>22</v>
@@ -3675,13 +3672,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>17</v>
@@ -3695,13 +3692,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>61</v>
@@ -3715,13 +3712,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>56</v>
@@ -3735,13 +3732,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>94</v>
@@ -3755,13 +3752,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>40</v>
@@ -3775,13 +3772,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>22</v>
@@ -3795,13 +3792,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>77</v>
@@ -3815,13 +3812,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>67</v>
@@ -3835,13 +3832,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>154</v>
@@ -3855,13 +3852,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -3875,13 +3872,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>25</v>
@@ -3895,13 +3892,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>64</v>
@@ -3915,13 +3912,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>95</v>
@@ -3935,13 +3932,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>76</v>
@@ -3955,13 +3952,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>11</v>
@@ -3975,13 +3972,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>13</v>
@@ -3995,13 +3992,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>66</v>
@@ -4015,13 +4012,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>79</v>
@@ -4035,13 +4032,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>81</v>
@@ -4055,13 +4052,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>23</v>
@@ -4075,13 +4072,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>23</v>
@@ -4095,13 +4092,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>83</v>
@@ -4115,13 +4112,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>85</v>
@@ -4135,13 +4132,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>146</v>
@@ -4161,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>15</v>
@@ -4181,7 +4178,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>24</v>
@@ -4201,7 +4198,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>52</v>
@@ -4221,7 +4218,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>80</v>
@@ -4241,7 +4238,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>104</v>
@@ -4258,10 +4255,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>12</v>
@@ -4278,10 +4275,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>18</v>
@@ -4298,10 +4295,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>54</v>
@@ -4318,10 +4315,10 @@
         <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>77</v>
@@ -4338,10 +4335,10 @@
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>89</v>
@@ -4361,7 +4358,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>27</v>
@@ -4381,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>19</v>
@@ -4401,7 +4398,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>85</v>
@@ -4421,7 +4418,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>86</v>
@@ -4441,7 +4438,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>143</v>

--- a/Data/End of Day/End of Day_23_Graph.xlsx
+++ b/Data/End of Day/End of Day_23_Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Documents/GitHub/GGEESummer23/Data/End of Day/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8F0C4C-97B4-F44A-B7EF-7D5CF31A4D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AAF6F5-D09B-5A47-9D91-D6BC6C1BD71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="15940" firstSheet="6" activeTab="10" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
+    <workbookView xWindow="15220" yWindow="500" windowWidth="13580" windowHeight="15940" firstSheet="7" activeTab="8" xr2:uid="{577BAB1A-2EED-D742-95AC-6D0DE0AFCAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeling" sheetId="1" r:id="rId1"/>
@@ -1387,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B1A2CD-7257-4546-905E-E1227DE5994D}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
@@ -3521,7 +3521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ABF019-0EA5-9346-A662-004F30A49F1A}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
